--- a/biology/Botanique/Pomme_de_terre_de_Merville/Pomme_de_terre_de_Merville.xlsx
+++ b/biology/Botanique/Pomme_de_terre_de_Merville/Pomme_de_terre_de_Merville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pomme de terre de Merville est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre 'Bintje' spécifique de la région de la vallée de la Lys dans la région Nord-Pas-de-Calais.
-Il s'agit d'une production de « niche », dont le potentiel était estimé à 350 tonnes en 2010[1].
+Il s'agit d'une production de « niche », dont le potentiel était estimé à 350 tonnes en 2010.
 Le « Syndicat de défense du label de la pomme de terre de Merville », créé le 24 juillet 1962, est chargé de promouvoir et de préserver cette production.
-La pomme de terre de Merville bénéficie du Label rouge selon un cahier des charges homologué sous le numéro 04-68 depuis 1968[2] et du label européen IGP depuis 1996[3].
-L'organisme certificateur est le Groupement Qualité Nord - Pas-de-Calais (GQNPC)[2]. 
+La pomme de terre de Merville bénéficie du Label rouge selon un cahier des charges homologué sous le numéro 04-68 depuis 1968 et du label européen IGP depuis 1996.
+L'organisme certificateur est le Groupement Qualité Nord - Pas-de-Calais (GQNPC). 
 </t>
         </is>
       </c>
@@ -516,13 +528,15 @@
           <t>Conditions à respecter</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pommes de terre doivent être cultivées dans les communes suivantes[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pommes de terre doivent être cultivées dans les communes suivantes : 
 Nord  (59) : Armentières, Boëseghem, Bois-Grenier, Bousbecque, La Chapelle-d'Armentières, Comines, Deûlémont, Le Doulieu, Erquinghem-Lys, Estaires, Frelinghien, La Gorgue, Halluin, Haverskerque, Houplines, Merville, Morbecque, Neuf-Berquin, Nieppe, Steenbecque, Steenwerck, Thiennes, Vieux-Berquin, Warneton, Wervicq-Sud
 Pas-de-Calais (62) : Aire-sur-la-Lys, Busnes, Calonne-sur-la-Lys, La Couture, Festubert, Fleurbaix, Guarbecque, Laventie, Lestrem, Locon, Neuve-Chapelle, Richebourg, Robecq, Sailly-sur-la-Lys, Saint-Floris, Saint-Venant, Vieille-Chapelle
 La seule variété autorisée est la 'Bintje'.
-Le taux de matière sèche des tubercules doit être égal au minimum à 20 %. Le défanage est en conséquence réalisé après analyse d'échantillons permettant de vérifier ce paramètre[4].
+Le taux de matière sèche des tubercules doit être égal au minimum à 20 %. Le défanage est en conséquence réalisé après analyse d'échantillons permettant de vérifier ce paramètre.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association « La Belle Bintje du Terroir », créée en 2010 pour relancer l'appellation après une période d'abandon, a été reconnue comme organisme de défense et de gestion (ODG) de l'appellation « Pomme de terre de Merville » IGP et Label rouge[5].
-En 2011, la pomme de terre de Merville a reçu, en association avec le Carrefour Market de Barlin (Pas-de-Calais),  le prix des « Trophées du mois  de l'origine et de la qualité », institué par le ministère de l'Agriculture[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association « La Belle Bintje du Terroir », créée en 2010 pour relancer l'appellation après une période d'abandon, a été reconnue comme organisme de défense et de gestion (ODG) de l'appellation « Pomme de terre de Merville » IGP et Label rouge.
+En 2011, la pomme de terre de Merville a reçu, en association avec le Carrefour Market de Barlin (Pas-de-Calais),  le prix des « Trophées du mois  de l'origine et de la qualité », institué par le ministère de l'Agriculture.
 </t>
         </is>
       </c>
